--- a/biology/Botanique/Cucurbita_maxima/Cucurbita_maxima.xlsx
+++ b/biology/Botanique/Cucurbita_maxima/Cucurbita_maxima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cucurbita maxima
 Le potiron (Cucurbita maxima) est une espèce de plante à fleurs de la famille des Cucurbitacées originaire des régions tropicales d'Amérique du Sud.
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot potiron est attesté en français dès 1476, où il désigne un type de champignon, avant de prendre son acception actuelle au XVIe siècle[1].
-L'épithète spécifique « maxima » [cucurbita] signifie ici « la plus grosse » [courge][2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot potiron est attesté en français dès 1476, où il désigne un type de champignon, avant de prendre son acception actuelle au XVIe siècle.
+L'épithète spécifique « maxima » [cucurbita] signifie ici « la plus grosse » [courge].
 </t>
         </is>
       </c>
@@ -547,10 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine et distribution
-Cette espèce est originaire du sud d'Amérique du Sud (Argentine, Uruguay)[1]. Elle est largement cultivée dans tous les pays chauds et tempérés.
-Introduction en Europe
-Cette plante a été introduite en Europe et en Chine par les Portugais au XVIe siècle, comme toutes les courges (Cucurbita), d'ailleurs souvent confondues entre elles et même avec les gourdes ou calebasses (Lagenaria), connues en Europe depuis l'Antiquité[1]. C'est à Charles Naudin que l'on doit la distinction entre les espèces et les variétés de potirons[3].
+          <t>Origine et distribution</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du sud d'Amérique du Sud (Argentine, Uruguay). Elle est largement cultivée dans tous les pays chauds et tempérés.
 </t>
         </is>
       </c>
@@ -576,10 +593,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Introduction en Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Cette plante a été introduite en Europe et en Chine par les Portugais au XVIe siècle, comme toutes les courges (Cucurbita), d'ailleurs souvent confondues entre elles et même avec les gourdes ou calebasses (Lagenaria), connues en Europe depuis l'Antiquité. C'est à Charles Naudin que l'on doit la distinction entre les espèces et les variétés de potirons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Différences entre « citrouille » et « potiron »</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il ne faut pas confondre les potirons et les citrouilles qui appartiennent à deux espèces différentes.
 Dans le langage courant, le terme de citrouille (courge de l'espèce Cucurbita pepo et de la sous-espèce Cucurbita pepo subsp. pepo) est plus ou moins synonyme de potiron (courge de l'espèce Cucurbita maxima). Ce sont tous deux des cucurbitacées, autrement dit, des courges.
@@ -594,31 +651,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cucurbita_maxima</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée annuelle à longues tiges très vigoureuses, rampantes, éventuellement grimpantes, qui s'accrochent par des vrilles à tout support.
 Les feuilles sont grandes, entières, cordiformes, à nervation palmée, formant cinq lobes arrondis.
@@ -629,39 +688,76 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cucurbita_maxima</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Principales variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On peut distinguer quatre groupes :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>On peut distinguer quatre groupes :
 Les potirons classiques - gros fruit côtelé, orange ou rouge à la chair orangée et aqueuse. Ex. ('Rouge vif d'Étampes').
 Les potimarrons - forme de poire (piriforme), le plus souvent de couleur rouge brique mais peut aussi être jaune, bleu ou vert, à la chair jaune plus ou moins orange, farineuse, au goût de châtaigne. Il était d'ailleurs appelé « courge châtaigne ».
 Les giraumons - forme de « bonnet turc ».
-Les courges de Hubbard - forme oblongue (doit son nom à Elizabeth Hubbard, une Américaine ayant apporté le premier spécimen connu par la botanique moderne à son voisin, un marchand de graines nommé James J. H. Gregory).
-Liste de variétés
-* 'Atlantic Giant (en)' qui détient le record du monde en taille et poids de la plus grosse courge avec 951 kg[4]
+Les courges de Hubbard - forme oblongue (doit son nom à Elizabeth Hubbard, une Américaine ayant apporté le premier spécimen connu par la botanique moderne à son voisin, un marchand de graines nommé James J. H. Gregory).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Principales variétés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste de variétés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+* 'Atlantic Giant (en)' qui détient le record du monde en taille et poids de la plus grosse courge avec 951 kg
  'Buttercup' 
 Courge 'Bleue de Hubbard' 
 Courge 'Verte de Hubbard' 
@@ -683,66 +779,70 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cucurbita_maxima</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tableau ci-dessous indique les principaux pays producteurs de citrouilles, courges et potirons (données globalisées)[5]:
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous indique les principaux pays producteurs de citrouilles, courges et potirons (données globalisées):
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cucurbita_maxima</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les potirons se reproduisent par semis.
 Les graines aplaties, sont plus ou moins grandes selon les variétés. On en compte trois à dix au gramme. La durée germinative est de quatre à cinq ans. La levée est complète après neuf jours.
-D'origine tropicale, le potiron exige de la chaleur artificielle s'il est semé avant mai. En Europe, c'est à partir du mois d'avril que les potirons ou potimarrons se cultivent[6].Avec les gelées, les tiges et les fruits se désorganisent.
+D'origine tropicale, le potiron exige de la chaleur artificielle s'il est semé avant mai. En Europe, c'est à partir du mois d'avril que les potirons ou potimarrons se cultivent.Avec les gelées, les tiges et les fruits se désorganisent.
 Les terres légères de jardin sont aptes à cette culture ; les tas de compost s'y prêtent très bien ; mais en général, avant de planter, il est utile de creuser des poquets ensuite remplis de terreau ou de compost siliceux.
 Les semis sur couche tiède en avril avec repiquage sous châssis froid et plantation en fin mai sont les plus employés pour la production de fruits précoces.
 Le potiron doit être arrosé régulièrement car cette plante nécessite beaucoup d'eau.
@@ -751,31 +851,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cucurbita_maxima</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Les potirons se récoltent à complète maturité et se consomment cuits. Très légers en calories et concentrés en micronutriments, ils peuvent être préparés de très nombreuses manières comme légume ou comme dessert : en soupe, en purée, en gratin, en tarte, en tourte, en confiture...., voire en glace.
 Le potiron peut se conserver sans difficulté de six mois à un an dans un endroit tempéré et sec (intérieur de maison par exemple).
@@ -784,33 +886,35 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Cucurbita_maxima</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucurbita_maxima</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la revue de l'Agence Fruits et Légumes Frais[7], Walt Disney a alimenté la confusion : dans Cendrillon, un de ses dessins animés les plus célèbres, la fée transforme un potiron en un magnifique carrosse, alors qu'elle-même, comme dans le texte original du conte de Charles Perrault, parle d'une citrouille.
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la revue de l'Agence Fruits et Légumes Frais, Walt Disney a alimenté la confusion : dans Cendrillon, un de ses dessins animés les plus célèbres, la fée transforme un potiron en un magnifique carrosse, alors qu'elle-même, comme dans le texte original du conte de Charles Perrault, parle d'une citrouille.
 </t>
         </is>
       </c>
